--- a/biology/Médecine/George_Harley/George_Harley.xlsx
+++ b/biology/Médecine/George_Harley/George_Harley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Harley (Haddington (East Lothian), 12 février 1829-Londres, 27 octobre 1896) est un physicien, physiologiste et médecin britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils unique, il perd son père l'année de sa naissance et est élevé par sa mère et sa grand-mère. Il fait ses études à l'université d'Édimbourg et est reçu médecin en août 1850.
 Chirurgien de la Edinburgh Royal Infirmary (en), il passe deux ans à Paris où il travaille dans les laboratoires physiologiques et chimiques de Charles Dollfus, François Verdeil et Charles Adolphe Wurtz puis au Collège de France où il officie avec François Magendie puis Claude Bernard. En 1853, il est élu président de la Société de médecine de Paris.
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il publia un grand nombre d'articles sur des sujets très divers comme l'analyse des gaz, la respiration, l'action de la strychnine, la fève de Calabar, les flèches empoisonnées ou les maladies du foie.
 On lui doit la découverte du fer comme un des constituants de l'urine et la détermination de la couleur de l'urine due à l'urobiline. En 1850 il démontre que le curare (wourali) est efficace dans le traitement du tétanos et de l'empoisonnement par la strychnine et en 1858, prouve que la pancréatine est capable de digérer les substances féculentes et albumineuses.
@@ -580,7 +596,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jaundice, its Pathology and Treatment, 1863
 The Urine and its Derangements, 1872
